--- a/biology/Zoologie/Henry_Ausloos/Henry_Ausloos.xlsx
+++ b/biology/Zoologie/Henry_Ausloos/Henry_Ausloos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Ausloos est un photographe animalier belge, né à Bruxelles en 1953. Ayant pratiqué la plongée sous-marine, la voile, le skydoo, ses activités lui permettent de prendre des photos d'animaux dans des situations parfois difficiles. Il possède, cependant, une nette préférence pour la faune de l'hémisphère nord et surtout les mammifères.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henry Ausloos a découvert la photographie animalière à la suite de la lecture d'un livre[1] sur la chasse photographique[2],[3]. Il a commencé, à 22 ans, avec du matériel 6×6 bi-objectif, puis est passé au 6×7 Pentax (même en plongée, réalisant l'agenda de Pentax Europe en photos sous-marines). C'est le poids du matériel et les progrès de l'autofocus qui l'on amené vers le 24×36 puis, évolution oblige, vers le numérique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henry Ausloos a découvert la photographie animalière à la suite de la lecture d'un livre sur la chasse photographique,. Il a commencé, à 22 ans, avec du matériel 6×6 bi-objectif, puis est passé au 6×7 Pentax (même en plongée, réalisant l'agenda de Pentax Europe en photos sous-marines). C'est le poids du matériel et les progrès de l'autofocus qui l'on amené vers le 24×36 puis, évolution oblige, vers le numérique.
 Près de 40 livres jalonnent son parcours depuis Le Guide de la chasse photographique chez Marabout en 1979 jusqu'à Déclarez votre flamme aux Éditions Équinoxe  en 2012 en passant par Camargue des Chevaux chez Equinoxe en 2003 (Prix Centauriades, Prix du Public). Polyvalent, il a travaillé aussi bien pour des guides touristiques aux éditions le Petit Futé ou de contes pour enfants sur les animaux sauvages. Il est aussi un conférencier très apprecié.
 Il collabore avec de grandes agences photographiques : Hemis et Sipa en France, Animals Animals aux États-Unis, AGE en Espagne, Mauritius-Images en Allemagne, NHPA en Angleterre, etc.
 </t>
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de l'ordre de Léopold
  Officier de l'ordre de la Couronne
@@ -578,7 +594,9 @@
           <t>Collections et expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Novembre 2006 : Auberge du Vieux Moulin - Duppigheim (Alsace)
 Mars 2007 : Biennale Naturama – Blainville-sur-l'Eau (Lorraine)
@@ -634,7 +652,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La Chasse photographique, Édition Collection Marabout service, 1979, (ASIN B0014LXBLY), (LCCN 80513017)
 Sur les chemins du Paradis, auto édition sous Press and Pictures (1979), (D/1979/2965/01)
